--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10020" activeTab="1"/>
+    <workbookView windowWidth="16245" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
     <sheet name="people1" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>EXPORT_SVR</t>
   </si>
   <si>
-    <t>test_svr</t>
-  </si>
-  <si>
     <t>EXPORT_CLI</t>
   </si>
   <si>
@@ -159,9 +155,6 @@
   </si>
   <si>
     <t>说明5</t>
-  </si>
-  <si>
-    <t>test_svr1</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1103,20 +1096,17 @@
     <col min="1" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -1124,23 +1114,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1163,7 +1153,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1186,105 +1176,105 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1293,21 +1283,21 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -1316,30 +1306,30 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -1347,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -1356,21 +1346,21 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -1379,10 +1369,10 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1397,8 +1387,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1406,20 +1396,17 @@
     <col min="1" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1427,23 +1414,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1466,7 +1453,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1489,105 +1476,105 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1596,21 +1583,21 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1619,21 +1606,21 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -1642,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -1653,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -1662,21 +1649,21 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -1685,10 +1672,10 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1713,21 +1700,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>EXPORT_SVR</t>
   </si>
@@ -46,115 +46,118 @@
     <t>UNION_KEYS</t>
   </si>
   <si>
+    <t>[[name],[age],[id,name],[id,age,sex]]</t>
+  </si>
+  <si>
+    <t>OUT_SVR</t>
+  </si>
+  <si>
+    <t>OUT_CLI</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>说明1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>[1,2,4]</t>
+  </si>
+  <si>
+    <t>说明2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>[1,2,5]</t>
+  </si>
+  <si>
+    <t>说明3</t>
+  </si>
+  <si>
+    <t>name4</t>
+  </si>
+  <si>
+    <t>[1,2,6]</t>
+  </si>
+  <si>
+    <t>说明4</t>
+  </si>
+  <si>
+    <t>name5</t>
+  </si>
+  <si>
+    <t>[1,2,7]</t>
+  </si>
+  <si>
+    <t>说明5</t>
+  </si>
+  <si>
     <t>[name,[age],[id,name],[id,age,sex]]</t>
-  </si>
-  <si>
-    <t>OUT_SVR</t>
-  </si>
-  <si>
-    <t>OUT_CLI</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>说明1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>[1,2,4]</t>
-  </si>
-  <si>
-    <t>说明2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>[1,2,5]</t>
-  </si>
-  <si>
-    <t>说明3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>[1,2,6]</t>
-  </si>
-  <si>
-    <t>说明4</t>
-  </si>
-  <si>
-    <t>name5</t>
-  </si>
-  <si>
-    <t>[1,2,7]</t>
-  </si>
-  <si>
-    <t>说明5</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1243,7 +1246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1260,9 +1263,6 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">

--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10020"/>
+    <workbookView windowWidth="21000" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
-    <sheet name="people1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>EXPORT_SVR</t>
   </si>
@@ -43,12 +42,15 @@
     <t>id</t>
   </si>
   <si>
-    <t>UNION_KEYS</t>
+    <t>UNION_KEYS_SVR</t>
   </si>
   <si>
     <t>[[name],[age],[id,name],[id,age,sex]]</t>
   </si>
   <si>
+    <t>UNION_KEYS_CLI</t>
+  </si>
+  <si>
     <t>OUT_SVR</t>
   </si>
   <si>
@@ -128,36 +130,6 @@
   </si>
   <si>
     <t>说明2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>[1,2,5]</t>
-  </si>
-  <si>
-    <t>说明3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>[1,2,6]</t>
-  </si>
-  <si>
-    <t>说明4</t>
-  </si>
-  <si>
-    <t>name5</t>
-  </si>
-  <si>
-    <t>[1,2,7]</t>
-  </si>
-  <si>
-    <t>说明5</t>
-  </si>
-  <si>
-    <t>[name,[age],[id,name],[id,age,sex]]</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1131,27 +1103,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1174,205 +1128,165 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1383,309 +1297,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="2" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
